--- a/home/hafsa-report/htdocs/report.hafsa.de/akademi/xlsx/telcB12408.xlsx
+++ b/home/hafsa-report/htdocs/report.hafsa.de/akademi/xlsx/telcB12408.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,45 +471,92 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>Hosin</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Rawan</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>31.01.1996</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Hasaka</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Herr</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Syrian Arab Republic</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Dortmund</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
           <t>Spasic</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B3" t="inlineStr">
         <is>
           <t>Dusan</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>19-11-1976</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>Belgrad</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>000</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>Herr</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>Serbia</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>Wetter (Ruhr)</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>Germany</t>
         </is>

--- a/home/hafsa-report/htdocs/report.hafsa.de/akademi/xlsx/telcB12408.xlsx
+++ b/home/hafsa-report/htdocs/report.hafsa.de/akademi/xlsx/telcB12408.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,22 +471,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Hosin</t>
+          <t>Baltic</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Rawan</t>
+          <t>Dzenana</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>31.01.1996</t>
+          <t>24.10.1988</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Hasaka</t>
+          <t>Lubarda</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -496,17 +496,17 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Herr</t>
+          <t>Frau</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Syrian Arab Republic</t>
+          <t>Bosnia and Herzegovina</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Dortmund</t>
+          <t>Remscheid</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -518,45 +518,92 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>Hosin</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Rawan</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>31.01.1996</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Hasaka</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Herr</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Syrian Arab Republic</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Dortmund</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
           <t>Spasic</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B4" t="inlineStr">
         <is>
           <t>Dusan</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>19-11-1976</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>Belgrad</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>000</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>Herr</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>Serbia</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>Wetter (Ruhr)</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>Germany</t>
         </is>
